--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_23.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1181310.568788492</v>
+        <v>1175448.248753312</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516697</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791242</v>
+        <v>419463.0933791243</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9916311.054853478</v>
+        <v>9915131.09607264</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>131.7833019096814</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>250.9006595814372</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.97488206194006</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
         <v>175.2139736830806</v>
@@ -795,13 +795,13 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>220.3146016126436</v>
+        <v>125.8989290102301</v>
       </c>
       <c r="W3" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>177.5210747552478</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>116.876383545772</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>202.4190535990189</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,16 +896,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>369.6602453039718</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>9.031127956876844</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>377.1358571708381</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -1035,13 +1035,13 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>2.236264487174944</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
-        <v>177.5210747552478</v>
+        <v>123.5074686873918</v>
       </c>
     </row>
     <row r="7">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>102.0192988591152</v>
+        <v>87.519456123834</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>149.3585453771484</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
@@ -1145,13 +1145,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>84.80969893562312</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>63.45080330270152</v>
+        <v>87.519456123834</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
@@ -1297,19 +1297,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873668</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>283.7357147238131</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344424</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372792</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362804</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>15.33598236398967</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087849</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
@@ -1436,7 +1436,7 @@
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.447489593873</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465761</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681701</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338906</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>36.64651412460628</v>
       </c>
       <c r="S13" t="n">
-        <v>73.09031311696127</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534023</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767912</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1613,19 +1613,19 @@
         <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>30.79604318026121</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372789</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362801</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>166.3460531232234</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993872</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338903</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456096</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
@@ -1831,7 +1831,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>98.63864847646597</v>
+        <v>113.3385037877947</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135895</v>
       </c>
       <c r="I17" t="n">
         <v>6.593776422875408</v>
@@ -1901,7 +1901,7 @@
         <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879333</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
         <v>236.929075365811</v>
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2330,13 +2330,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2378,10 +2378,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380516</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596456</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380447</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2798,7 +2798,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F29" t="n">
         <v>318.7342196110055</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2852,13 +2852,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3007,13 +3007,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542121</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820279</v>
+        <v>276.4638267093887</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954282</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345501</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852512</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568061</v>
+        <v>296.2512081841669</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291035</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838904</v>
+        <v>24.17382596574986</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828916</v>
+        <v>52.06849973564998</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161067</v>
+        <v>108.4856766434675</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696766</v>
+        <v>140.4152824970374</v>
       </c>
       <c r="V32" t="n">
-        <v>232.349283903446</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813246</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162029</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885341</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431749</v>
+        <v>70.5760187316783</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459989</v>
+        <v>55.72314698196071</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643962</v>
+        <v>41.29686219380044</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931873</v>
+        <v>41.22330424667955</v>
       </c>
       <c r="F34" t="n">
-        <v>49.416218139086</v>
+        <v>42.97275566644682</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147813</v>
+        <v>53.79159358883895</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805018</v>
+        <v>41.14384575541099</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922211</v>
+        <v>18.98356133658292</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367802</v>
+        <v>9.882059701038841</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920534</v>
+        <v>88.00800320656616</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133774</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404473</v>
+        <v>169.8044840678081</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273132</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480634</v>
+        <v>167.7171782754242</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947759</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714523</v>
+        <v>108.1010207988131</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
@@ -3272,7 +3272,7 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F35" t="n">
         <v>282.3655247697376</v>
@@ -3284,7 +3284,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277553</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U35" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W35" t="n">
         <v>236.929075365811</v>
@@ -3332,7 +3332,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E37" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G37" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V37" t="n">
         <v>132.9595824117996</v>
@@ -3490,7 +3490,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3515,13 +3515,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3563,10 +3563,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730205</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="41">
@@ -4043,7 +4043,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730205</v>
+        <v>262.165832673021</v>
       </c>
     </row>
     <row r="45">
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1377.797514946955</v>
+        <v>850.1698118121153</v>
       </c>
       <c r="C2" t="n">
-        <v>1377.797514946955</v>
+        <v>850.1698118121153</v>
       </c>
       <c r="D2" t="n">
-        <v>992.356386163623</v>
+        <v>850.1698118121153</v>
       </c>
       <c r="E2" t="n">
-        <v>589.7728612801675</v>
+        <v>850.1698118121153</v>
       </c>
       <c r="F2" t="n">
-        <v>456.6584149067519</v>
+        <v>433.2753733420931</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475502</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475502</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.448080049574</v>
+        <v>534.8235384748673</v>
       </c>
       <c r="M2" t="n">
-        <v>1462.126125959341</v>
+        <v>1048.426217084555</v>
       </c>
       <c r="N2" t="n">
-        <v>1989.937409596803</v>
+        <v>1562.028895694244</v>
       </c>
       <c r="O2" t="n">
-        <v>1989.937409596803</v>
+        <v>2002.068496586572</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596803</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737751</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737751</v>
+        <v>1870.655869043494</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.782969737751</v>
+        <v>1647.155266602911</v>
       </c>
       <c r="U2" t="n">
-        <v>2174.782969737751</v>
+        <v>1647.155266602911</v>
       </c>
       <c r="V2" t="n">
-        <v>2174.782969737751</v>
+        <v>1647.155266602911</v>
       </c>
       <c r="W2" t="n">
-        <v>2174.782969737751</v>
+        <v>1647.155266602911</v>
       </c>
       <c r="X2" t="n">
-        <v>2174.782969737751</v>
+        <v>1647.155266602911</v>
       </c>
       <c r="Y2" t="n">
-        <v>1778.292260658352</v>
+        <v>1250.664557523512</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793.4743885466976</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C3" t="n">
-        <v>642.8201581067898</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D3" t="n">
-        <v>512.7311907282701</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E3" t="n">
-        <v>376.2846998391578</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>251.8528937222897</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>131.7930757941541</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>43.49565939475502</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475502</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>43.49565939475502</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>43.49565939475502</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M3" t="n">
-        <v>480.0174418653886</v>
+        <v>1327.194567652343</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875482</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466463</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.41787818286</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2153.596220180236</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S3" t="n">
-        <v>2153.596220180236</v>
+        <v>1916.314617614855</v>
       </c>
       <c r="T3" t="n">
-        <v>1976.612408379144</v>
+        <v>1739.330805813764</v>
       </c>
       <c r="U3" t="n">
-        <v>1766.549265057786</v>
+        <v>1529.267662492405</v>
       </c>
       <c r="V3" t="n">
-        <v>1544.009263428853</v>
+        <v>1402.097027128537</v>
       </c>
       <c r="W3" t="n">
-        <v>1313.89201756214</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="X3" t="n">
-        <v>1124.584939912152</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y3" t="n">
-        <v>945.2707229876589</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>555.2709727409466</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="C4" t="n">
-        <v>385.0658548069358</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="D4" t="n">
-        <v>229.4327417094506</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="E4" t="n">
-        <v>73.87392956865307</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="F4" t="n">
-        <v>73.87392956865307</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="G4" t="n">
-        <v>73.87392956865307</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="H4" t="n">
-        <v>73.87392956865307</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I4" t="n">
-        <v>73.87392956865307</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>824.8933162213535</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>824.8933162213535</v>
       </c>
       <c r="U4" t="n">
-        <v>944.9426819363074</v>
+        <v>824.8933162213535</v>
       </c>
       <c r="V4" t="n">
-        <v>944.9426819363074</v>
+        <v>558.9139710421778</v>
       </c>
       <c r="W4" t="n">
-        <v>944.9426819363074</v>
+        <v>275.5835689733553</v>
       </c>
       <c r="X4" t="n">
-        <v>740.4789914322479</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="Y4" t="n">
-        <v>740.4789914322479</v>
+        <v>41.50324675633844</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>949.7904437329444</v>
+        <v>859.2386590380743</v>
       </c>
       <c r="C5" t="n">
-        <v>949.7904437329444</v>
+        <v>466.0631575410049</v>
       </c>
       <c r="D5" t="n">
-        <v>564.3493149496121</v>
+        <v>466.0631575410049</v>
       </c>
       <c r="E5" t="n">
-        <v>564.3493149496121</v>
+        <v>63.47963265754939</v>
       </c>
       <c r="F5" t="n">
-        <v>190.955127773883</v>
+        <v>50.62559822793121</v>
       </c>
       <c r="G5" t="n">
-        <v>181.8327763022902</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022902</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K5" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="L5" t="n">
-        <v>536.8159511132839</v>
+        <v>534.8235384748673</v>
       </c>
       <c r="M5" t="n">
-        <v>1075.074736123377</v>
+        <v>936.6744981739569</v>
       </c>
       <c r="N5" t="n">
-        <v>1549.897808704474</v>
+        <v>1450.277176783645</v>
       </c>
       <c r="O5" t="n">
-        <v>1989.937409596803</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596803</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023273</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964324</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="T5" t="n">
-        <v>1746.77589852374</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="U5" t="n">
-        <v>1746.77589852374</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="V5" t="n">
-        <v>1746.77589852374</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="W5" t="n">
-        <v>1746.77589852374</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="X5" t="n">
-        <v>1746.77589852374</v>
+        <v>1656.22411382887</v>
       </c>
       <c r="Y5" t="n">
-        <v>1350.285189444341</v>
+        <v>1259.733404749471</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284344</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K6" t="n">
-        <v>98.17903122827016</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="L6" t="n">
-        <v>581.7451171265834</v>
+        <v>844.8084787168782</v>
       </c>
       <c r="M6" t="n">
-        <v>1120.003902136677</v>
+        <v>1358.411157326566</v>
       </c>
       <c r="N6" t="n">
-        <v>1658.26268714677</v>
+        <v>1872.013835936255</v>
       </c>
       <c r="O6" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="P6" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635815</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535684</v>
+        <v>1916.314617614855</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734593</v>
+        <v>1739.330805813764</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413234</v>
+        <v>1529.267662492405</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784302</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917588</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1117.420583213484</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>841.8928851089183</v>
+        <v>854.5467782637152</v>
       </c>
       <c r="C7" t="n">
-        <v>841.8928851089183</v>
+        <v>684.3416603297044</v>
       </c>
       <c r="D7" t="n">
-        <v>686.2597720114331</v>
+        <v>528.7085472322191</v>
       </c>
       <c r="E7" t="n">
-        <v>530.7009598706356</v>
+        <v>528.7085472322191</v>
       </c>
       <c r="F7" t="n">
-        <v>530.7009598706356</v>
+        <v>528.7085472322191</v>
       </c>
       <c r="G7" t="n">
-        <v>362.4469059700812</v>
+        <v>360.4544933316647</v>
       </c>
       <c r="H7" t="n">
-        <v>206.9683549315752</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="I7" t="n">
-        <v>73.87392956865307</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="X7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="Y7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1655.986794363964</v>
+        <v>1390.283507231095</v>
       </c>
       <c r="C8" t="n">
-        <v>1262.811292866895</v>
+        <v>997.1080057340261</v>
       </c>
       <c r="D8" t="n">
-        <v>877.3701640835627</v>
+        <v>611.6668769506938</v>
       </c>
       <c r="E8" t="n">
-        <v>877.3701640835627</v>
+        <v>611.6668769506938</v>
       </c>
       <c r="F8" t="n">
-        <v>460.4757256135405</v>
+        <v>194.7724384806716</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4808,13 +4808,13 @@
         <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>666.9511603618604</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1212.952060406441</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N8" t="n">
-        <v>1740.763344043903</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O8" t="n">
         <v>2180.802944936232</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2142.147902636597</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2142.147902636597</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V8" t="n">
-        <v>2056.481540075361</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="W8" t="n">
-        <v>2056.481540075361</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="X8" t="n">
-        <v>2056.481540075361</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="Y8" t="n">
-        <v>2056.481540075361</v>
+        <v>1541.150724783771</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L9" t="n">
-        <v>47.31297010154367</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M9" t="n">
-        <v>632.8109751081458</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>884.6682721353168</v>
+        <v>860.3565016089203</v>
       </c>
       <c r="C10" t="n">
-        <v>714.463154201306</v>
+        <v>690.1513836749095</v>
       </c>
       <c r="D10" t="n">
-        <v>558.8300411038207</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="E10" t="n">
-        <v>403.2712289630232</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="F10" t="n">
-        <v>245.9452941759961</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G10" t="n">
-        <v>77.69124027544166</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H10" t="n">
-        <v>77.69124027544166</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
         <v>77.69124027544166</v>
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1647.67072010887</v>
+        <v>1398.198638179665</v>
       </c>
       <c r="C11" t="n">
-        <v>1326.291493757995</v>
+        <v>1398.198638179665</v>
       </c>
       <c r="D11" t="n">
-        <v>1012.646640120856</v>
+        <v>1398.198638179665</v>
       </c>
       <c r="E11" t="n">
-        <v>1012.646640120856</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="F11" t="n">
-        <v>667.5484767970279</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527726</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654571</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>2859.534777998631</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U11" t="n">
-        <v>2859.534777998631</v>
+        <v>2938.761166634629</v>
       </c>
       <c r="V11" t="n">
-        <v>2589.224243848344</v>
+        <v>2668.450632484341</v>
       </c>
       <c r="W11" t="n">
-        <v>2290.021483962825</v>
+        <v>2369.247872598823</v>
       </c>
       <c r="X11" t="n">
-        <v>1972.365154042075</v>
+        <v>2051.591542678073</v>
       </c>
       <c r="Y11" t="n">
-        <v>1647.67072010887</v>
+        <v>1726.897108744868</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>689.8907773307967</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1345.668748541356</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O12" t="n">
-        <v>1862.189031132337</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P12" t="n">
-        <v>2267.810399848734</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>326.0217193453918</v>
+        <v>411.7059410452042</v>
       </c>
       <c r="C13" t="n">
-        <v>326.0217193453918</v>
+        <v>411.7059410452042</v>
       </c>
       <c r="D13" t="n">
-        <v>326.0217193453918</v>
+        <v>327.8691030939128</v>
       </c>
       <c r="E13" t="n">
-        <v>242.2591823507883</v>
+        <v>244.1065660993092</v>
       </c>
       <c r="F13" t="n">
-        <v>242.2591823507883</v>
+        <v>158.5769064584761</v>
       </c>
       <c r="G13" t="n">
-        <v>145.8014035964277</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
         <v>62.11912770411553</v>
@@ -5197,52 +5197,52 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774626</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M13" t="n">
-        <v>746.069761511822</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138158</v>
+        <v>999.6269248138161</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P13" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814507</v>
+        <v>1459.715960880562</v>
       </c>
       <c r="S13" t="n">
-        <v>1422.904042706466</v>
+        <v>1459.715960880562</v>
       </c>
       <c r="T13" t="n">
-        <v>1258.981266020893</v>
+        <v>1295.79318419499</v>
       </c>
       <c r="U13" t="n">
-        <v>1045.338749408988</v>
+        <v>1082.150667583085</v>
       </c>
       <c r="V13" t="n">
-        <v>851.1556793760062</v>
+        <v>887.9675975501029</v>
       </c>
       <c r="W13" t="n">
-        <v>639.6215524533777</v>
+        <v>676.4334706274744</v>
       </c>
       <c r="X13" t="n">
-        <v>477.3375053825546</v>
+        <v>676.4334706274744</v>
       </c>
       <c r="Y13" t="n">
-        <v>326.0217193453918</v>
+        <v>525.1176845903117</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1450.148693143103</v>
+        <v>1470.676576838058</v>
       </c>
       <c r="C14" t="n">
-        <v>1128.769466792227</v>
+        <v>1149.297350487182</v>
       </c>
       <c r="D14" t="n">
-        <v>815.1246131550881</v>
+        <v>835.6524968500435</v>
       </c>
       <c r="E14" t="n">
-        <v>815.1246131550881</v>
+        <v>504.8652471127816</v>
       </c>
       <c r="F14" t="n">
-        <v>470.0264498312598</v>
+        <v>159.7670837889532</v>
       </c>
       <c r="G14" t="n">
-        <v>128.6599694654568</v>
+        <v>159.7670837889532</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654568</v>
+        <v>128.659969465457</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J14" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K14" t="n">
         <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M14" t="n">
         <v>1605.072448403515</v>
@@ -5306,22 +5306,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>2859.534777998631</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="U14" t="n">
-        <v>2691.508461712548</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="V14" t="n">
-        <v>2421.19792756226</v>
+        <v>2740.928571142733</v>
       </c>
       <c r="W14" t="n">
-        <v>2421.19792756226</v>
+        <v>2441.725811257215</v>
       </c>
       <c r="X14" t="n">
-        <v>2103.541597641511</v>
+        <v>2124.069481336466</v>
       </c>
       <c r="Y14" t="n">
-        <v>1778.847163708306</v>
+        <v>1799.375047403261</v>
       </c>
     </row>
     <row r="15">
@@ -5358,19 +5358,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>490.2252314250076</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>973.7913173233209</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>973.7913173233209</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
-        <v>1629.56928853388</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O15" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
         <v>2146.089571124861</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>207.0995538131559</v>
+        <v>305.6629586599519</v>
       </c>
       <c r="C16" t="n">
-        <v>207.0995538131559</v>
+        <v>207.2541158721351</v>
       </c>
       <c r="D16" t="n">
-        <v>207.0995538131559</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="E16" t="n">
-        <v>207.0995538131559</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="F16" t="n">
-        <v>207.0995538131559</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131559</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5437,7 +5437,7 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
         <v>489.4106539027736</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="S16" t="n">
         <v>1365.712833143251</v>
       </c>
       <c r="T16" t="n">
-        <v>1201.790056457678</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="U16" t="n">
-        <v>988.1475398457735</v>
+        <v>988.1475398457737</v>
       </c>
       <c r="V16" t="n">
-        <v>793.9644698127917</v>
+        <v>793.9644698127919</v>
       </c>
       <c r="W16" t="n">
-        <v>582.4303428901632</v>
+        <v>582.4303428901634</v>
       </c>
       <c r="X16" t="n">
-        <v>420.1462958193401</v>
+        <v>420.1462958193405</v>
       </c>
       <c r="Y16" t="n">
-        <v>320.5112973582634</v>
+        <v>305.6629586599519</v>
       </c>
     </row>
     <row r="17">
@@ -5498,13 +5498,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975448</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
         <v>68.7795079292422</v>
@@ -5546,7 +5546,7 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
         <v>2644.789635573995</v>
@@ -5592,19 +5592,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>865.4243596646552</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O18" t="n">
         <v>1740.468202408463</v>
@@ -5674,19 +5674,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L19" t="n">
-        <v>313.6614512960402</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M19" t="n">
-        <v>499.9530296343043</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N19" t="n">
-        <v>683.1426636655135</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O19" t="n">
-        <v>845.8474307072216</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P19" t="n">
         <v>1094.779966106229</v>
@@ -5744,16 +5744,16 @@
         <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292424</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358934</v>
@@ -5783,7 +5783,7 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V20" t="n">
         <v>2644.789635573994</v>
@@ -5829,19 +5829,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.947919817482</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O21" t="n">
         <v>1740.468202408463</v>
@@ -5908,25 +5908,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>67.6987703122989</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>149.5338114222408</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>442.7178209184691</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567331</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879423</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296503</v>
+        <v>969.324157721467</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498046</v>
       </c>
       <c r="Q22" t="n">
         <v>1098.20216247628</v>
@@ -5969,19 +5969,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924226</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6014,7 +6014,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6023,10 +6023,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
@@ -6075,10 +6075,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1084.690231197904</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N24" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
         <v>1740.468202408463</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H25" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6157,40 +6157,40 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>969.3241577214669</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.77996610623</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.202162476281</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974525</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H26" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L26" t="n">
-        <v>1349.471364791089</v>
+        <v>1249.152663612378</v>
       </c>
       <c r="M26" t="n">
-        <v>1895.47226483567</v>
+        <v>1795.153563656959</v>
       </c>
       <c r="N26" t="n">
-        <v>2516.334910202705</v>
+        <v>2416.016209023994</v>
       </c>
       <c r="O26" t="n">
-        <v>2956.374511095034</v>
+        <v>2949.107171645896</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508977</v>
+        <v>3390.346025506991</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.428440379499</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="27">
@@ -6297,22 +6297,22 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755025</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N27" t="n">
         <v>1235.193651060917</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.065661551713</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414161</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
         <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192015</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904118</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628628</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V28" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286452</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988166</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026483</v>
       </c>
     </row>
     <row r="29">
@@ -6443,16 +6443,16 @@
         <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,52 +6461,52 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>247.9841471388008</v>
       </c>
       <c r="K29" t="n">
-        <v>670.0483496134135</v>
+        <v>700.0178648958359</v>
       </c>
       <c r="L29" t="n">
-        <v>1163.368641331942</v>
+        <v>1286.389518343938</v>
       </c>
       <c r="M29" t="n">
-        <v>1802.420903106096</v>
+        <v>1925.441780118092</v>
       </c>
       <c r="N29" t="n">
-        <v>2416.016209023994</v>
+        <v>2453.253063755554</v>
       </c>
       <c r="O29" t="n">
-        <v>2949.107171645896</v>
+        <v>2893.292664647883</v>
       </c>
       <c r="P29" t="n">
-        <v>3390.346025506991</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605753</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452358</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.131976164852</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420328</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640573</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="30">
@@ -6549,10 +6549,10 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>989.7850731278173</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985344</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517123</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414155</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878067</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G31" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232843</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796859</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.528880919201</v>
       </c>
       <c r="L31" t="n">
         <v>568.7078825225741</v>
@@ -6643,28 +6643,28 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
-        <v>1411.834951573177</v>
+        <v>1411.834951573176</v>
       </c>
       <c r="U31" t="n">
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286442</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988156</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026472</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800459</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463675</v>
+        <v>904.3560533993077</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057096</v>
+        <v>601.3807258108106</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230771</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189324</v>
+        <v>91.97314162835507</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076167</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J32" t="n">
-        <v>319.4704138766598</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>678.4527699041216</v>
+        <v>682.8393851136179</v>
       </c>
       <c r="L32" t="n">
-        <v>1257.183244468662</v>
+        <v>1176.159676832147</v>
       </c>
       <c r="M32" t="n">
-        <v>1803.184144513242</v>
+        <v>1722.160576876727</v>
       </c>
       <c r="N32" t="n">
-        <v>2330.995428150704</v>
+        <v>2249.971860514189</v>
       </c>
       <c r="O32" t="n">
-        <v>2771.035029043033</v>
+        <v>2801.663581981501</v>
       </c>
       <c r="P32" t="n">
-        <v>3224.495613901625</v>
+        <v>3149.851074113022</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042574</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038084</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908499</v>
+        <v>3325.162335939831</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.18438039728</v>
+        <v>3215.580844380773</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696897</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394125</v>
+        <v>2845.55952728194</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291778</v>
+        <v>2588.479603131753</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154199</v>
+        <v>2312.946108946335</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004164</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076167</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076167</v>
+        <v>102.254681251447</v>
       </c>
       <c r="K33" t="n">
-        <v>389.2866943029881</v>
+        <v>102.254681251447</v>
       </c>
       <c r="L33" t="n">
-        <v>872.8527802013014</v>
+        <v>585.8207671497603</v>
       </c>
       <c r="M33" t="n">
-        <v>872.8527802013014</v>
+        <v>1213.592416776441</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1869.370387987</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965139</v>
+        <v>365.6713676929717</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918675</v>
+        <v>309.3853606404862</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237467</v>
+        <v>267.6713584245261</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123136</v>
+        <v>226.0316571652539</v>
       </c>
       <c r="F34" t="n">
-        <v>204.142889754651</v>
+        <v>182.6248332597521</v>
       </c>
       <c r="G34" t="n">
-        <v>143.299398783461</v>
+        <v>128.2898902407228</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431936</v>
+        <v>86.730450083742</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076167</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703943</v>
+        <v>149.4335135798905</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074062</v>
+        <v>342.9206752648152</v>
       </c>
       <c r="L34" t="n">
-        <v>514.8099960076247</v>
+        <v>618.7004357135978</v>
       </c>
       <c r="M34" t="n">
-        <v>701.1015743458887</v>
+        <v>804.9920140518618</v>
       </c>
       <c r="N34" t="n">
-        <v>989.564301104168</v>
+        <v>988.181648083071</v>
       </c>
       <c r="O34" t="n">
-        <v>1257.542160872946</v>
+        <v>1150.886415124779</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649525</v>
+        <v>1270.762580901358</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746646</v>
+        <v>1379.984435873656</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308587</v>
+        <v>1370.002557387758</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420501</v>
+        <v>1281.105584451833</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.9091795181</v>
+        <v>1159.305643501592</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689365</v>
+        <v>987.7859626250186</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395535</v>
+        <v>835.725728327368</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000955</v>
+        <v>666.3144371400708</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012443</v>
+        <v>546.1532258045792</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584508</v>
+        <v>436.9602755027478</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6929,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924219</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6956,19 +6956,19 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
@@ -7014,16 +7014,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885592</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369568</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218802</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F37" t="n">
         <v>123.9159479588726</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072661</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462912</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7096,49 +7096,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>273.010538436486</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184686</v>
       </c>
       <c r="M37" t="n">
-        <v>499.9530296343043</v>
+        <v>629.0093992567326</v>
       </c>
       <c r="N37" t="n">
-        <v>683.1426636655135</v>
+        <v>812.1990332879418</v>
       </c>
       <c r="O37" t="n">
-        <v>845.8474307072216</v>
+        <v>974.9038003296498</v>
       </c>
       <c r="P37" t="n">
-        <v>965.7235964838002</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="38">
@@ -7157,16 +7157,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924227</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7178,13 +7178,13 @@
         <v>565.7512566404055</v>
       </c>
       <c r="L38" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M38" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N38" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O38" t="n">
         <v>2572.923332933306</v>
@@ -7193,13 +7193,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7336,46 +7336,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>313.6614512960402</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>499.9530296343043</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>683.1426636655135</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>845.8474307072216</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162813</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S40" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="41">
@@ -7394,16 +7394,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G41" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7433,19 +7433,19 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U41" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
         <v>2405.467337224691</v>
@@ -7497,16 +7497,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>978.5393418843826</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>2122.831274102045</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7561,34 +7561,34 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>593.6560140511123</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N43" t="n">
-        <v>776.8456480823215</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
         <v>1098.20216247628</v>
@@ -7631,13 +7631,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G44" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H44" t="n">
         <v>68.77950792924223</v>
@@ -7825,7 +7825,7 @@
         <v>960.1439538756169</v>
       </c>
       <c r="Q46" t="n">
-        <v>1090.581152532863</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R46" t="n">
         <v>1098.20216247628</v>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>575.662471708603</v>
+        <v>668.5156360519577</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920146</v>
       </c>
       <c r="O2" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>224.1336100998645</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,25 +8055,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>533.3182154539923</v>
+        <v>465.3882399439964</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886044</v>
+        <v>604.1626973083971</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8222,10 +8222,10 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321651</v>
+        <v>555.635111899838</v>
       </c>
       <c r="N5" t="n">
-        <v>628.7377565712154</v>
+        <v>667.9090757920146</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8295,19 +8295,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>144.8326644580961</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837496</v>
+        <v>611.1777065035424</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886044</v>
+        <v>604.1626973083971</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>297.8880658390581</v>
       </c>
       <c r="P6" t="n">
         <v>87.08336481931465</v>
@@ -8456,7 +8456,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>270.4260094517309</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8465,7 +8465,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>212.9227975229111</v>
       </c>
       <c r="P8" t="n">
         <v>150.3014472409252</v>
@@ -8535,22 +8535,22 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>667.5244230630204</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>235.8239269133934</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8708,7 +8708,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8766,13 +8766,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
@@ -8781,13 +8781,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>204.7702368236083</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9006,22 +9006,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>407.7697853345098</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
         <v>327.7205688679246</v>
@@ -9240,7 +9240,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9249,13 +9249,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>447.5171231095475</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9486,13 +9486,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>335.1420048916687</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
@@ -9723,13 +9723,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>199.6102425680207</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O24" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9963,7 +9963,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>447.5171231095471</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10197,13 +10197,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118427</v>
+        <v>220.884447093964</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10425,28 +10425,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>117.4945034435373</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10595,10 +10595,10 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N35" t="n">
-        <v>682.2612020826954</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O35" t="n">
-        <v>594.0482827698827</v>
+        <v>594.0482827698837</v>
       </c>
       <c r="P35" t="n">
         <v>502.0059847475129</v>
@@ -10662,7 +10662,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10671,10 +10671,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>454.5321323046928</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -11145,19 +11145,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>347.309009847301</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.479377239889</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>54.21710083833188</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750155</v>
+        <v>166.7809075110258</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096564</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993877</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D13" t="n">
-        <v>82.9984695717785</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442488</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456099</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901691</v>
+        <v>14.93715295441059</v>
       </c>
       <c r="S13" t="n">
-        <v>56.61929746758297</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23501,16 +23501,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>218.9678643541811</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,16 +23546,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>15.77083675179202</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993875</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177847</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465758</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442485</v>
+        <v>84.67436304442482</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681699</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901688</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>51.16397970032517</v>
+        <v>36.4641243889964</v>
       </c>
     </row>
     <row r="17">
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-9.198091796324334e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
     </row>
     <row r="45">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>869300.640168633</v>
+        <v>868699.0925548726</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>869300.640168633</v>
+        <v>868699.0925548726</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>774795.9960789959</v>
+        <v>774795.9960789958</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>873369.8230230903</v>
+        <v>873369.8230230901</v>
       </c>
     </row>
     <row r="8">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>414764.0096147208</v>
+        <v>414764.0096147206</v>
       </c>
       <c r="C2" t="n">
         <v>414764.0096147206</v>
       </c>
       <c r="D2" t="n">
-        <v>414764.0096147207</v>
+        <v>414764.0096147208</v>
       </c>
       <c r="E2" t="n">
-        <v>366525.7538761216</v>
+        <v>366525.7538761217</v>
       </c>
       <c r="F2" t="n">
-        <v>366525.7538761218</v>
+        <v>366525.7538761217</v>
       </c>
       <c r="G2" t="n">
-        <v>414764.0096147211</v>
+        <v>414764.0096147209</v>
       </c>
       <c r="H2" t="n">
-        <v>414764.009614721</v>
+        <v>414764.0096147209</v>
       </c>
       <c r="I2" t="n">
         <v>414764.0096147209</v>
       </c>
       <c r="J2" t="n">
-        <v>414764.009614721</v>
+        <v>414764.0096147206</v>
       </c>
       <c r="K2" t="n">
         <v>414764.0096147205</v>
       </c>
       <c r="L2" t="n">
-        <v>414764.0096147208</v>
+        <v>414764.0096147204</v>
       </c>
       <c r="M2" t="n">
+        <v>414764.0096147209</v>
+      </c>
+      <c r="N2" t="n">
         <v>414764.009614721</v>
-      </c>
-      <c r="N2" t="n">
-        <v>414764.0096147209</v>
       </c>
       <c r="O2" t="n">
         <v>414764.0096147209</v>
       </c>
       <c r="P2" t="n">
-        <v>414764.0096147209</v>
+        <v>414764.0096147208</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918561</v>
+        <v>173858.6570340551</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062173</v>
+        <v>22558.42953401351</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668199</v>
+        <v>47425.32553668196</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945027</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728544</v>
+        <v>62456.24177539678</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.829459623</v>
+        <v>43252.52447081124</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.6940427712</v>
+        <v>27767.69404277121</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188945.5063541665</v>
+        <v>195056.1330166296</v>
       </c>
       <c r="C4" t="n">
-        <v>188945.5063541665</v>
+        <v>195056.1330166296</v>
       </c>
       <c r="D4" t="n">
         <v>177238.0115641587</v>
       </c>
       <c r="E4" t="n">
-        <v>99893.08150805096</v>
+        <v>99893.08150805102</v>
       </c>
       <c r="F4" t="n">
-        <v>99893.08150805101</v>
+        <v>99893.08150805104</v>
       </c>
       <c r="G4" t="n">
+        <v>147651.9979996333</v>
+      </c>
+      <c r="H4" t="n">
         <v>147651.9979996332</v>
-      </c>
-      <c r="H4" t="n">
-        <v>147651.9979996333</v>
       </c>
       <c r="I4" t="n">
         <v>147651.9979996332</v>
@@ -26445,10 +26445,10 @@
         <v>148402.4904640163</v>
       </c>
       <c r="L4" t="n">
-        <v>148146.916563533</v>
+        <v>148013.5219544782</v>
       </c>
       <c r="M4" t="n">
-        <v>147651.9979996332</v>
+        <v>147651.9979996333</v>
       </c>
       <c r="N4" t="n">
         <v>147651.9979996332</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001382</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001382</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26497,16 +26497,16 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173852</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551968</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-23070.74617131567</v>
+        <v>-19320.84797078129</v>
       </c>
       <c r="C6" t="n">
-        <v>159134.2021205403</v>
+        <v>154537.8090632738</v>
       </c>
       <c r="D6" t="n">
-        <v>153118.4004627671</v>
+        <v>145382.1112393754</v>
       </c>
       <c r="E6" t="n">
-        <v>101324.0911941856</v>
+        <v>101114.359647496</v>
       </c>
       <c r="F6" t="n">
-        <v>213446.6526682303</v>
+        <v>213236.9211215406</v>
       </c>
       <c r="G6" t="n">
-        <v>161516.9167628862</v>
+        <v>161516.916762886</v>
       </c>
       <c r="H6" t="n">
         <v>208942.2422995681</v>
       </c>
       <c r="I6" t="n">
-        <v>208942.2422995681</v>
+        <v>208942.242299568</v>
       </c>
       <c r="J6" t="n">
-        <v>-4099.675297717476</v>
+        <v>2416.609856855408</v>
       </c>
       <c r="K6" t="n">
         <v>202702.4738967847</v>
       </c>
       <c r="L6" t="n">
-        <v>147519.8849621639</v>
+        <v>143471.0477516912</v>
       </c>
       <c r="M6" t="n">
-        <v>166741.4128399451</v>
+        <v>165689.7178287568</v>
       </c>
       <c r="N6" t="n">
-        <v>208942.2422995681</v>
+        <v>208942.2422995682</v>
       </c>
       <c r="O6" t="n">
-        <v>181174.5482567969</v>
+        <v>181174.5482567968</v>
       </c>
       <c r="P6" t="n">
         <v>208942.242299568</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,22 +26811,22 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.060736844378</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095209</v>
+        <v>844.4391950293137</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085248</v>
+        <v>59.28165692085246</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346403</v>
+        <v>34.70961755346399</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660681</v>
+        <v>78.07030221924597</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551363</v>
+        <v>17.58004954287448</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.709617553464</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485731</v>
+        <v>72.62154181506457</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773717</v>
+        <v>659.3622249971647</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.2217133240722</v>
+        <v>117.1268713042795</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085248</v>
+        <v>59.28165692085246</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346403</v>
+        <v>34.70961755346399</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485731</v>
+        <v>72.62154181506457</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27382,22 +27382,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>280.9421921756406</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>158.1304683754396</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2.702990608976041</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27515,13 +27515,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>94.41567260241355</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
@@ -27558,7 +27558,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>83.91153943350409</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -27594,13 +27594,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>29.32046539582782</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27616,16 +27616,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>43.06524878135019</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
@@ -27679,7 +27679,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>8.422221845435672</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27755,13 +27755,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
-        <v>185.1777423863135</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>54.013606067856</v>
       </c>
     </row>
     <row r="7">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>81.3366396452731</v>
+        <v>95.83648238055426</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>247.1312528771345</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>253.8760422678937</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
@@ -27919,7 +27919,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>119.9051352016867</v>
+        <v>95.83648238055426</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,19 +28017,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="17">
@@ -28746,10 +28746,10 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L19" t="n">
-        <v>5.636002634528353</v>
+        <v>5.636002634528666</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28980,28 +28980,28 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>35.71049010668774</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>5.636002634528316</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -29229,19 +29229,19 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>128.2979821082774</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>5.636002634529518</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431648</v>
+        <v>86.65052755599572</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
-        <v>30.27223765901141</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431648</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.2722376590126</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N29" t="n">
-        <v>86.65052755599527</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="32">
@@ -29746,37 +29746,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="L32" t="n">
-        <v>86.27291196566773</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -29785,37 +29785,37 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="P32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>43.49509683160025</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000708</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="L34" t="n">
-        <v>18.71446861254418</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000708</v>
+        <v>106.8683420224724</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -30168,13 +30168,13 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>5.636002634528154</v>
       </c>
       <c r="M37" t="n">
-        <v>5.636002634528381</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>122.6619794737488</v>
@@ -30250,7 +30250,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -30408,7 +30408,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>5.636002634528353</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30420,13 +30420,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
+        <v>128.2979821082783</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30639,22 +30639,22 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>35.71049010668801</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -30663,7 +30663,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30897,10 +30897,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>128.2979821082778</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="R46" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>425.9374201108757</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>73.83216285893927</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>440.9310934046804</v>
+        <v>373.0011178946845</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34942,10 +34942,10 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344378</v>
+        <v>405.9100603021107</v>
       </c>
       <c r="N5" t="n">
-        <v>479.6192652334313</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -35015,19 +35015,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>55.23572912476277</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>205.2005069501692</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35176,7 +35176,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>117.1778397212393</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35185,7 +35185,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>63.35896009881473</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35255,22 +35255,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>582.1523102088538</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>148.7405620940788</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35428,7 +35428,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
@@ -35501,13 +35501,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>113.7820836676943</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257283</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35574,19 +35574,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
-        <v>259.2516238475238</v>
+        <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318107</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P13" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488438</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>318.1728500011765</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
         <v>236.7324157120106</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257285</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488441</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35969,13 +35969,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>362.1450102553808</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
@@ -36042,10 +36042,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L19" t="n">
-        <v>171.4214974565483</v>
+        <v>171.4214974565487</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
@@ -36057,7 +36057,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
@@ -36124,7 +36124,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L20" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M20" t="n">
         <v>551.5160606510915</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36206,13 +36206,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>249.769892037502</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.636002634528664</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36291,13 +36291,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644680799</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36443,13 +36443,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>107.2231205187088</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36525,19 +36525,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>126.7230387724877</v>
+        <v>249.3850182462355</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004055</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>584.9538525242067</v>
       </c>
       <c r="M26" t="n">
         <v>551.5160606510915</v>
@@ -36607,16 +36607,16 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>381.9767751655991</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
         <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.3782898969832</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36683,7 +36683,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>362.1450102553805</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>176.3831193851016</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>619.7932383009064</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>280.7039614853755</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>56.37828989698316</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,13 +36917,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576761</v>
+        <v>135.5123342397974</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>252.4473390261598</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>475.3883602044896</v>
       </c>
       <c r="L32" t="n">
-        <v>584.5762369338787</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
@@ -37081,16 +37081,16 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>557.2643651184962</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066585</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>230.2077838426594</v>
       </c>
       <c r="R32" t="n">
-        <v>68.7234727227375</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>35.05004611020397</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791171</v>
+        <v>82.70543230055088</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868808</v>
+        <v>195.4415774595199</v>
       </c>
       <c r="L34" t="n">
-        <v>184.4999634345642</v>
+        <v>278.5654145947299</v>
       </c>
       <c r="M34" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750296</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371496</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102233</v>
+        <v>110.3251060326249</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37315,10 +37315,10 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N35" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457873</v>
       </c>
       <c r="P35" t="n">
         <v>351.7045375065877</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
@@ -37391,10 +37391,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37464,13 +37464,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565481</v>
       </c>
       <c r="M37" t="n">
-        <v>193.8093140873203</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
@@ -37482,7 +37482,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L38" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682118</v>
       </c>
       <c r="M38" t="n">
         <v>551.5160606510915</v>
@@ -37704,7 +37704,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>171.4214974565483</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
@@ -37716,13 +37716,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>251.4470054535426</v>
+        <v>249.3850182462365</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7.69798984183555</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37865,19 +37865,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>260.2256450279863</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
@@ -37944,13 +37944,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>200.0587396437669</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
         <v>121.0870361379582</v>
@@ -37959,7 +37959,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38029,7 +38029,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
         <v>351.7045375065877</v>
@@ -38193,10 +38193,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>131.7547461184303</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R46" t="n">
-        <v>7.697989841835579</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
